--- a/Morales Vallejo Jorge Luis 20212.xlsx
+++ b/Morales Vallejo Jorge Luis 20212.xlsx
@@ -8811,7 +8811,7 @@
         <v>941</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">

--- a/Morales Vallejo Jorge Luis 20212.xlsx
+++ b/Morales Vallejo Jorge Luis 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1228">
   <si>
     <t>NC</t>
   </si>
@@ -2684,9 +2684,6 @@
     <t>ALEXANDER</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
     <t>DARLET VICTORIA</t>
   </si>
   <si>
@@ -2756,9 +2753,6 @@
     <t>garaydelgado80@gmail.com</t>
   </si>
   <si>
-    <t>natigap48@gmail.com</t>
-  </si>
-  <si>
     <t>darletvictoriagarciarodriguez@gmail.com</t>
   </si>
   <si>
@@ -2837,9 +2831,6 @@
     <t>2721200463</t>
   </si>
   <si>
-    <t>2722018659</t>
-  </si>
-  <si>
     <t>2727212047</t>
   </si>
   <si>
@@ -2909,9 +2900,6 @@
     <t>2721060576</t>
   </si>
   <si>
-    <t>2721443309</t>
-  </si>
-  <si>
     <t>2711036218</t>
   </si>
   <si>
@@ -2966,9 +2954,6 @@
     <t>JACQUELIN DELGADO POLITO</t>
   </si>
   <si>
-    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
-  </si>
-  <si>
     <t>RUTH BAUTISTA APARICIO</t>
   </si>
   <si>
@@ -3087,9 +3072,6 @@
   </si>
   <si>
     <t>2727839804</t>
-  </si>
-  <si>
-    <t>2721349831</t>
   </si>
   <si>
     <t>2711036278</t>
@@ -8339,7 +8321,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8403,19 +8385,19 @@
         <v>879</v>
       </c>
       <c r="E2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="J2" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8435,19 +8417,19 @@
         <v>880</v>
       </c>
       <c r="E3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8467,16 +8449,16 @@
         <v>881</v>
       </c>
       <c r="E4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H4" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8496,19 +8478,19 @@
         <v>882</v>
       </c>
       <c r="E5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="I5" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="J5" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8528,19 +8510,19 @@
         <v>883</v>
       </c>
       <c r="E6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I6" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="J6" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8560,22 +8542,22 @@
         <v>884</v>
       </c>
       <c r="E7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J7" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8595,22 +8577,22 @@
         <v>885</v>
       </c>
       <c r="E8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G8" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I8" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J8" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8630,22 +8612,22 @@
         <v>886</v>
       </c>
       <c r="E9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G9" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H9" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I9" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="J9" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -8665,22 +8647,22 @@
         <v>887</v>
       </c>
       <c r="E10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="H10" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I10" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8688,31 +8670,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>888</v>
       </c>
       <c r="E11" t="s">
-        <v>912</v>
-      </c>
-      <c r="F11" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="G11" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H11" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="J11" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8720,28 +8699,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>913</v>
+        <v>912</v>
+      </c>
+      <c r="F12" t="s">
+        <v>937</v>
       </c>
       <c r="G12" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H12" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J12" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8749,31 +8731,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>593</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
         <v>890</v>
       </c>
       <c r="E13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H13" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1001</v>
       </c>
       <c r="J13" t="s">
-        <v>1025</v>
+        <v>938</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8781,95 +8766,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D14" t="s">
-        <v>891</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F14" t="s">
-        <v>941</v>
-      </c>
-      <c r="G14" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H14" t="s">
-        <v>985</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="J14" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>891</v>
       </c>
       <c r="E15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H15" t="s">
-        <v>986</v>
+        <v>982</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1002</v>
       </c>
       <c r="J15" t="s">
-        <v>942</v>
+        <v>1020</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>892</v>
       </c>
       <c r="E16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H16" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I16" t="s">
-        <v>1007</v>
+        <v>916</v>
       </c>
       <c r="J16" t="s">
-        <v>1026</v>
+        <v>941</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8877,31 +8859,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>867</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>893</v>
+        <v>586</v>
       </c>
       <c r="E17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H17" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I17" t="s">
-        <v>918</v>
+        <v>1003</v>
       </c>
       <c r="J17" t="s">
-        <v>944</v>
+        <v>1021</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8909,63 +8891,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>867</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="D18" t="s">
-        <v>586</v>
+        <v>893</v>
       </c>
       <c r="E18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H18" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I18" t="s">
-        <v>1008</v>
+        <v>918</v>
       </c>
       <c r="J18" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>594</v>
+        <v>874</v>
       </c>
       <c r="D19" t="s">
         <v>894</v>
       </c>
       <c r="E19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F19" t="s">
-        <v>946</v>
+        <v>944</v>
+      </c>
+      <c r="G19" t="s">
+        <v>963</v>
       </c>
       <c r="H19" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I19" t="s">
-        <v>920</v>
+        <v>1004</v>
       </c>
       <c r="J19" t="s">
-        <v>946</v>
+        <v>1022</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8973,34 +8958,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>603</v>
       </c>
       <c r="C20" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D20" t="s">
         <v>895</v>
       </c>
       <c r="E20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F20" t="s">
-        <v>947</v>
-      </c>
-      <c r="G20" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="H20" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I20" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J20" t="s">
-        <v>1028</v>
+        <v>945</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9008,95 +8990,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>603</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>875</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
         <v>896</v>
       </c>
       <c r="E21" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F21" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H21" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I21" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J21" t="s">
-        <v>948</v>
+        <v>1023</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F22" t="s">
-        <v>949</v>
+        <v>947</v>
+      </c>
+      <c r="G22" t="s">
+        <v>964</v>
       </c>
       <c r="H22" t="s">
-        <v>993</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="J22" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>868</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="E23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G23" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H23" t="s">
-        <v>994</v>
+        <v>990</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1007</v>
       </c>
       <c r="J23" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9104,63 +9089,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>876</v>
       </c>
       <c r="D24" t="s">
         <v>898</v>
       </c>
       <c r="E24" t="s">
-        <v>925</v>
-      </c>
-      <c r="F24" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="G24" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H24" t="s">
-        <v>995</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="J24" t="s">
-        <v>1031</v>
+        <v>966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>899</v>
       </c>
       <c r="E25" t="s">
-        <v>926</v>
+        <v>925</v>
+      </c>
+      <c r="F25" t="s">
+        <v>949</v>
       </c>
       <c r="G25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H25" t="s">
-        <v>996</v>
+        <v>992</v>
+      </c>
+      <c r="I25" t="s">
+        <v>925</v>
       </c>
       <c r="J25" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9168,138 +9153,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>877</v>
       </c>
       <c r="D26" t="s">
         <v>900</v>
       </c>
       <c r="E26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G26" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="I26" t="s">
-        <v>927</v>
+        <v>1008</v>
       </c>
       <c r="J26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>877</v>
+        <v>618</v>
       </c>
       <c r="D27" t="s">
-        <v>901</v>
+        <v>343</v>
       </c>
       <c r="E27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G27" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="H27" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I27" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>869</v>
       </c>
       <c r="C28" t="s">
-        <v>618</v>
+        <v>878</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>901</v>
       </c>
       <c r="E28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F28" t="s">
-        <v>954</v>
-      </c>
-      <c r="G28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H28" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I28" t="s">
-        <v>1014</v>
+        <v>928</v>
       </c>
       <c r="J28" t="s">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>869</v>
-      </c>
-      <c r="C29" t="s">
-        <v>878</v>
-      </c>
-      <c r="D29" t="s">
-        <v>902</v>
-      </c>
-      <c r="E29" t="s">
-        <v>930</v>
-      </c>
-      <c r="F29" t="s">
-        <v>955</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I29" t="s">
-        <v>930</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -9371,22 +9321,22 @@
         <v>591</v>
       </c>
       <c r="D2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="H2" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="I2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="J2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9403,22 +9353,22 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E3" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="G3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="H3" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="J3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -9432,22 +9382,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D4" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="E4" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G4" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="H4" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="J4" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9464,22 +9414,22 @@
         <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E5" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F5" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="H5" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="J5" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9490,28 +9440,28 @@
         <v>21330051920189</v>
       </c>
       <c r="B6" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C6" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D6" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E6" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F6" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="H6" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="I6" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="J6" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9528,22 +9478,22 @@
         <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F7" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="H7" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="I7" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="J7" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9560,22 +9510,22 @@
         <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E8" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F8" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="H8" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="I8" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="J8" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9586,31 +9536,31 @@
         <v>21330051920192</v>
       </c>
       <c r="B9" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C9" t="s">
         <v>868</v>
       </c>
       <c r="D9" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F9" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="G9" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="H9" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="I9" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="J9" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -9624,25 +9574,25 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D10" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="E10" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F10" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="H10" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="I10" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="J10" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9656,25 +9606,25 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D11" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E11" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F11" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H11" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="I11" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="J11" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9685,31 +9635,31 @@
         <v>21330051920194</v>
       </c>
       <c r="B12" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C12" t="s">
         <v>864</v>
       </c>
       <c r="D12" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E12" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F12" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="G12" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="H12" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="I12" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="J12" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9726,25 +9676,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="E13" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F13" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G13" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="H13" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="I13" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="J13" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -9755,28 +9705,28 @@
         <v>21330051920196</v>
       </c>
       <c r="B14" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E14" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F14" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="H14" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="I14" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="J14" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9793,22 +9743,22 @@
         <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="E15" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F15" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="H15" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="I15" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="J15" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -9819,28 +9769,28 @@
         <v>21330051920386</v>
       </c>
       <c r="B16" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F16" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="G16" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="H16" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="J16" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -9851,28 +9801,28 @@
         <v>21330051920198</v>
       </c>
       <c r="B17" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C17" t="s">
         <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E17" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F17" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="H17" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="I17" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="J17" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9889,22 +9839,22 @@
         <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E18" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F18" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="G18" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="H18" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="J18" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9915,28 +9865,28 @@
         <v>21330051920200</v>
       </c>
       <c r="B19" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C19" t="s">
         <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E19" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F19" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="H19" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="I19" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="J19" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9956,16 +9906,16 @@
         <v>589</v>
       </c>
       <c r="E20" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G20" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="H20" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="J20" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9979,28 +9929,28 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D21" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E21" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F21" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="G21" t="s">
         <v>185</v>
       </c>
       <c r="H21" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I21" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="J21" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -10017,25 +9967,25 @@
         <v>314</v>
       </c>
       <c r="D22" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E22" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="F22" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="G22" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="H22" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="I22" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="J22" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -10046,28 +9996,28 @@
         <v>21330051920204</v>
       </c>
       <c r="B23" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E23" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F23" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="H23" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="I23" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="J23" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -10084,25 +10034,25 @@
         <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E24" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F24" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G24" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="H24" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="I24" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="J24" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10113,28 +10063,28 @@
         <v>21330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E25" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F25" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="H25" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="I25" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="J25" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10145,25 +10095,25 @@
         <v>21330051920207</v>
       </c>
       <c r="B26" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E26" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="G26" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="H26" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="J26" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10174,28 +10124,28 @@
         <v>21330051920208</v>
       </c>
       <c r="B27" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C27" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D27" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E27" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F27" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="H27" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="I27" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="J27" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10212,22 +10162,22 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E28" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F28" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G28" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="H28" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="J28" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10244,25 +10194,25 @@
         <v>878</v>
       </c>
       <c r="D29" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E29" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F29" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G29" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="H29" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="I29" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="J29" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -10282,22 +10232,22 @@
         <v>880</v>
       </c>
       <c r="E30" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F30" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G30" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="H30" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="I30" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="J30" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -10311,28 +10261,28 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D31" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E31" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F31" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G31" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="H31" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="I31" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="J31" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10346,28 +10296,28 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D32" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E32" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F32" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="G32" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="H32" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="I32" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="J32" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10381,28 +10331,28 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D33" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E33" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F33" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G33" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="H33" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="I33" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="J33" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="K33">
         <v>1</v>

--- a/Morales Vallejo Jorge Luis 20212.xlsx
+++ b/Morales Vallejo Jorge Luis 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1230">
   <si>
     <t>NC</t>
   </si>
@@ -932,6 +932,9 @@
     <t>ROMERO</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
@@ -1113,6 +1116,9 @@
   </si>
   <si>
     <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>BRIANDA RENEE</t>
   </si>
   <si>
     <t>ISAI</t>
@@ -5342,7 +5348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5400,28 +5406,28 @@
         <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5438,22 +5444,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5467,28 +5473,28 @@
         <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5502,28 +5508,28 @@
         <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5540,22 +5546,22 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5569,28 +5575,28 @@
         <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5604,28 +5610,28 @@
         <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5639,25 +5645,25 @@
         <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5674,19 +5680,19 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -5700,28 +5706,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5738,25 +5744,25 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I12" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5770,28 +5776,28 @@
         <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J13" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5805,25 +5811,25 @@
         <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5837,22 +5843,22 @@
         <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5869,22 +5875,22 @@
         <v>286</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G16" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5901,22 +5907,22 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H17" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5930,28 +5936,28 @@
         <v>291</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I18" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5965,28 +5971,28 @@
         <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H19" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I19" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J19" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6003,25 +6009,25 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G20" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I20" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J20" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -6038,22 +6044,22 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H21" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6067,28 +6073,28 @@
         <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I22" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -6105,22 +6111,22 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H23" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I23" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J23" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -6134,25 +6140,25 @@
         <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H24" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6166,25 +6172,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H25" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I25" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J25" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -6201,22 +6207,22 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I26" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6230,25 +6236,25 @@
         <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F27" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H27" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6265,22 +6271,22 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H28" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6297,22 +6303,22 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F29" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H29" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J29" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -6329,25 +6335,25 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F30" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G30" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H30" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I30" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J30" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6364,22 +6370,22 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I31" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -6393,28 +6399,28 @@
         <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G32" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H32" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I32" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J32" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6431,25 +6437,25 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H33" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -6466,25 +6472,25 @@
         <v>290</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F34" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G34" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H34" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I34" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J34" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -6492,63 +6498,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
         <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
-      </c>
-      <c r="E35" t="s">
-        <v>408</v>
-      </c>
-      <c r="F35" t="s">
-        <v>449</v>
-      </c>
-      <c r="G35" t="s">
-        <v>475</v>
-      </c>
-      <c r="H35" t="s">
-        <v>514</v>
-      </c>
-      <c r="I35" t="s">
-        <v>547</v>
-      </c>
-      <c r="J35" t="s">
-        <v>576</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="F36" t="s">
+        <v>451</v>
       </c>
       <c r="G36" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H36" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="I36" t="s">
+        <v>549</v>
       </c>
       <c r="J36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -6556,203 +6547,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
-        <v>410</v>
-      </c>
-      <c r="F37" t="s">
-        <v>450</v>
+        <v>411</v>
+      </c>
+      <c r="G37" t="s">
+        <v>478</v>
       </c>
       <c r="H37" t="s">
-        <v>516</v>
-      </c>
-      <c r="I37" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="J37" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F38" t="s">
-        <v>451</v>
-      </c>
-      <c r="G38" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="H38" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="I38" t="s">
+        <v>550</v>
       </c>
       <c r="J38" t="s">
-        <v>451</v>
+        <v>580</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H39" t="s">
-        <v>518</v>
-      </c>
-      <c r="I39" t="s">
-        <v>412</v>
+        <v>519</v>
       </c>
       <c r="J39" t="s">
-        <v>579</v>
+        <v>453</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F40" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I40" t="s">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="J40" t="s">
-        <v>453</v>
+        <v>581</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
         <v>308</v>
       </c>
       <c r="C41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G41" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="H41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I41" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J41" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I42" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -6760,39 +6745,42 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="G43" t="s">
+        <v>457</v>
       </c>
       <c r="H43" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>310</v>
@@ -6801,21 +6789,53 @@
         <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>417</v>
-      </c>
-      <c r="G44" t="s">
-        <v>480</v>
+        <v>418</v>
+      </c>
+      <c r="F44" t="s">
+        <v>458</v>
       </c>
       <c r="H44" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="I44" t="s">
+        <v>554</v>
       </c>
       <c r="J44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" t="s">
+        <v>482</v>
+      </c>
+      <c r="H45" t="s">
+        <v>525</v>
+      </c>
+      <c r="J45" t="s">
+        <v>585</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -6881,25 +6901,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="J2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6910,28 +6930,28 @@
         <v>21330051920290</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="J3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6942,25 +6962,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6971,31 +6991,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G5" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7009,25 +7029,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J6" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7038,31 +7058,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7073,25 +7093,25 @@
         <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C8" t="s">
         <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E8" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -7102,28 +7122,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7137,22 +7157,22 @@
         <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="J10" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7163,31 +7183,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I11" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J11" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7198,31 +7218,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F12" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H12" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I12" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J12" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7233,28 +7253,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E13" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H13" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I13" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -7268,22 +7288,22 @@
         <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G14" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H14" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="J14" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7297,28 +7317,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E15" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F15" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G15" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H15" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="I15" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J15" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -7332,28 +7352,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E16" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G16" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I16" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7364,28 +7384,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I17" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J17" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7396,28 +7416,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E18" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F18" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G18" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H18" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J18" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7428,25 +7448,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E19" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G19" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H19" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="J19" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -7463,22 +7483,22 @@
         <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E20" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H20" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I20" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J20" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7495,22 +7515,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F21" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H21" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="I21" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J21" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7524,25 +7544,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E22" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F22" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G22" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H22" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J22" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7553,31 +7573,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G23" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H23" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7588,28 +7608,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C24" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D24" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E24" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F24" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H24" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I24" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J24" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -7620,31 +7640,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E25" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I25" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7661,25 +7681,25 @@
         <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F26" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G26" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H26" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J26" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7690,28 +7710,28 @@
         <v>21330051920311</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D27" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F27" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G27" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H27" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J27" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -7728,22 +7748,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E28" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F28" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H28" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J28" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7754,28 +7774,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C29" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F29" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H29" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="I29" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J29" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7786,28 +7806,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C30" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D30" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F30" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G30" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H30" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J30" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -7818,31 +7838,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C31" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D31" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F31" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G31" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H31" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I31" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J31" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -7856,25 +7876,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D32" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F32" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H32" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I32" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J32" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -7888,25 +7908,25 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F33" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H33" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I33" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J33" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7917,28 +7937,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D34" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F34" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G34" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H34" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J34" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -7952,25 +7972,25 @@
         <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D35" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F35" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G35" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H35" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J35" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -7987,22 +8007,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F36" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G36" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H36" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J36" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -8016,25 +8036,25 @@
         <v>299</v>
       </c>
       <c r="C37" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D37" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E37" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F37" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H37" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="I37" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J37" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -8048,28 +8068,28 @@
         <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D38" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E38" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F38" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G38" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H38" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="I38" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="J38" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -8086,25 +8106,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E39" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F39" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G39" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H39" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="I39" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J39" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -8118,28 +8138,28 @@
         <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E40" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F40" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G40" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H40" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -8150,28 +8170,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C41" t="s">
         <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E41" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F41" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H41" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I41" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J41" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -8182,28 +8202,28 @@
         <v>21330051920327</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E42" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F42" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H42" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I42" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J42" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -8214,31 +8234,31 @@
         <v>21330051920328</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C43" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E43" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F43" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G43" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H43" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I43" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J43" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -8255,25 +8275,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E44" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F44" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G44" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H44" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I44" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J44" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -8284,31 +8304,31 @@
         <v>21330051920330</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E45" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F45" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G45" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H45" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I45" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J45" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -8376,28 +8396,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="J2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8408,28 +8428,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E3" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8440,25 +8460,25 @@
         <v>21330051920333</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G4" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="J4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8469,28 +8489,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C5" t="s">
         <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H5" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="I5" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J5" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8504,25 +8524,25 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D6" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E6" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F6" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H6" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I6" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="J6" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8533,31 +8553,31 @@
         <v>21330051920137</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E7" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F7" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H7" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I7" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8568,31 +8588,31 @@
         <v>21330051920336</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I8" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8609,25 +8629,25 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E9" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F9" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G9" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H9" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I9" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J9" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -8638,31 +8658,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D10" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F10" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="I10" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J10" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8679,19 +8699,19 @@
         <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E11" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G11" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H11" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="J11" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8708,22 +8728,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E12" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F12" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G12" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H12" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="J12" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8734,31 +8754,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E13" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G13" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H13" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="I13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J13" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8769,7 +8789,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C14" t="s">
         <v>299</v>
@@ -8778,16 +8798,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F14" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H14" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J14" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8804,22 +8824,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E15" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F15" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H15" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="I15" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J15" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8836,22 +8856,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E16" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F16" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H16" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="I16" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="J16" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8862,28 +8882,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E17" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F17" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H17" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I17" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J17" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8897,25 +8917,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D18" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E18" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F18" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H18" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I18" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J18" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -8929,28 +8949,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D19" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E19" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F19" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G19" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H19" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="I19" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="J19" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8961,28 +8981,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D20" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E20" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F20" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="I20" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J20" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8999,22 +9019,22 @@
         <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E21" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F21" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H21" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I21" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="J21" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9031,22 +9051,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E22" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F22" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G22" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H22" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J22" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -9057,31 +9077,31 @@
         <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E23" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F23" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G23" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H23" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I23" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="J23" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9095,22 +9115,22 @@
         <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D24" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E24" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G24" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H24" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J24" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9127,25 +9147,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E25" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F25" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G25" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H25" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="I25" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J25" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9159,28 +9179,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D26" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E26" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F26" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G26" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H26" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="I26" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="J26" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9194,28 +9214,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F27" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G27" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H27" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I27" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="J27" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -9226,28 +9246,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C28" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D28" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E28" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F28" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H28" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="I28" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J28" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9315,28 +9335,28 @@
         <v>21330051920185</v>
       </c>
       <c r="B2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="H2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="I2" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="J2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9347,28 +9367,28 @@
         <v>21330051920186</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G3" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H3" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="J3" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -9382,22 +9402,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D4" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G4" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H4" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="J4" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9411,25 +9431,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E5" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F5" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H5" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="I5" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J5" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9440,28 +9460,28 @@
         <v>21330051920189</v>
       </c>
       <c r="B6" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C6" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D6" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E6" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F6" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="H6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="I6" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J6" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9478,22 +9498,22 @@
         <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E7" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F7" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="H7" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="I7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="J7" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9510,22 +9530,22 @@
         <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E8" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F8" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H8" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="I8" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J8" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9536,31 +9556,31 @@
         <v>21330051920192</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C9" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D9" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E9" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F9" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G9" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H9" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I9" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="J9" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -9574,25 +9594,25 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D10" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E10" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F10" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H10" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="I10" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="J10" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9606,25 +9626,25 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E11" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H11" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="I11" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J11" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9635,31 +9655,31 @@
         <v>21330051920194</v>
       </c>
       <c r="B12" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C12" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D12" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E12" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F12" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G12" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H12" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="I12" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="J12" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9676,25 +9696,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E13" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F13" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G13" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H13" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="I13" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="J13" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -9705,28 +9725,28 @@
         <v>21330051920196</v>
       </c>
       <c r="B14" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="I14" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9743,22 +9763,22 @@
         <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E15" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F15" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H15" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="I15" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J15" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -9769,28 +9789,28 @@
         <v>21330051920386</v>
       </c>
       <c r="B16" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E16" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F16" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G16" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H16" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="J16" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -9801,28 +9821,28 @@
         <v>21330051920198</v>
       </c>
       <c r="B17" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E17" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F17" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H17" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="I17" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="J17" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9836,25 +9856,25 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E18" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F18" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G18" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H18" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="J18" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9865,28 +9885,28 @@
         <v>21330051920200</v>
       </c>
       <c r="B19" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C19" t="s">
         <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E19" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F19" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H19" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="I19" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J19" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9897,25 +9917,25 @@
         <v>21330051920201</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E20" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G20" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H20" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="J20" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9929,28 +9949,28 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D21" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E21" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F21" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G21" t="s">
         <v>185</v>
       </c>
       <c r="H21" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="I21" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="J21" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9964,28 +9984,28 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E22" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F22" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G22" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H22" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="I22" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="J22" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9996,28 +10016,28 @@
         <v>21330051920204</v>
       </c>
       <c r="B23" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E23" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F23" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H23" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="I23" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="J23" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -10028,31 +10048,31 @@
         <v>21330051920205</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C24" t="s">
         <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E24" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F24" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G24" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H24" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I24" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J24" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10063,28 +10083,28 @@
         <v>21330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E25" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F25" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H25" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I25" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J25" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10095,25 +10115,25 @@
         <v>21330051920207</v>
       </c>
       <c r="B26" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E26" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G26" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H26" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="J26" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10124,28 +10144,28 @@
         <v>21330051920208</v>
       </c>
       <c r="B27" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C27" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D27" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E27" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F27" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H27" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I27" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="J27" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10162,22 +10182,22 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E28" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F28" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G28" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H28" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="J28" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10191,28 +10211,28 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D29" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E29" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F29" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G29" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H29" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I29" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="J29" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -10223,31 +10243,31 @@
         <v>21330051920211</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>301</v>
       </c>
       <c r="D30" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E30" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F30" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G30" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H30" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I30" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J30" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -10261,28 +10281,28 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D31" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E31" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F31" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G31" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H31" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I31" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="J31" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10296,28 +10316,28 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D32" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E32" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G32" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H32" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I32" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J32" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10331,28 +10351,28 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D33" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E33" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F33" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G33" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H33" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="I33" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="J33" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="K33">
         <v>1</v>

--- a/Morales Vallejo Jorge Luis 20212.xlsx
+++ b/Morales Vallejo Jorge Luis 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1232">
   <si>
     <t>NC</t>
   </si>
@@ -1250,6 +1250,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -1566,6 +1569,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -5415,19 +5421,19 @@
         <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I2" t="s">
         <v>377</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5450,16 +5456,16 @@
         <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5482,19 +5488,19 @@
         <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5517,19 +5523,19 @@
         <v>380</v>
       </c>
       <c r="F5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5552,16 +5558,16 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5584,19 +5590,19 @@
         <v>382</v>
       </c>
       <c r="F7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I7" t="s">
         <v>382</v>
       </c>
       <c r="J7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5619,19 +5625,19 @@
         <v>383</v>
       </c>
       <c r="F8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5654,16 +5660,16 @@
         <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5686,13 +5692,13 @@
         <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -5715,19 +5721,19 @@
         <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5750,19 +5756,19 @@
         <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I12" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5785,19 +5791,19 @@
         <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5820,16 +5826,16 @@
         <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I14" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5852,13 +5858,13 @@
         <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J15" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5881,16 +5887,16 @@
         <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5913,16 +5919,16 @@
         <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I17" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5945,19 +5951,19 @@
         <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I18" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5980,19 +5986,19 @@
         <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I19" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6015,19 +6021,19 @@
         <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I20" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -6050,16 +6056,16 @@
         <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6082,19 +6088,19 @@
         <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I22" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -6117,16 +6123,16 @@
         <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I23" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -6149,16 +6155,16 @@
         <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6181,16 +6187,16 @@
         <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H25" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I25" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J25" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -6213,16 +6219,16 @@
         <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I26" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6245,16 +6251,16 @@
         <v>402</v>
       </c>
       <c r="F27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I27" t="s">
         <v>402</v>
       </c>
       <c r="J27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6277,16 +6283,16 @@
         <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G28" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J28" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6309,16 +6315,16 @@
         <v>404</v>
       </c>
       <c r="F29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H29" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I29" t="s">
         <v>404</v>
       </c>
       <c r="J29" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -6341,19 +6347,19 @@
         <v>405</v>
       </c>
       <c r="F30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H30" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I30" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J30" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6376,16 +6382,16 @@
         <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I31" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -6408,19 +6414,19 @@
         <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G32" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I32" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J32" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6443,19 +6449,19 @@
         <v>408</v>
       </c>
       <c r="F33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -6478,19 +6484,19 @@
         <v>409</v>
       </c>
       <c r="F34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G34" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H34" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J34" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -6509,6 +6515,24 @@
       <c r="D35" t="s">
         <v>366</v>
       </c>
+      <c r="E35" t="s">
+        <v>410</v>
+      </c>
+      <c r="F35" t="s">
+        <v>410</v>
+      </c>
+      <c r="H35" t="s">
+        <v>517</v>
+      </c>
+      <c r="I35" t="s">
+        <v>410</v>
+      </c>
+      <c r="J35" t="s">
+        <v>410</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -6524,22 +6548,22 @@
         <v>367</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G36" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H36" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I36" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J36" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -6559,16 +6583,16 @@
         <v>368</v>
       </c>
       <c r="E37" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H37" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -6588,19 +6612,19 @@
         <v>369</v>
       </c>
       <c r="E38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H38" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I38" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J38" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -6620,19 +6644,19 @@
         <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G39" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H39" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -6652,22 +6676,22 @@
         <v>371</v>
       </c>
       <c r="E40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G40" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H40" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J40" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -6687,22 +6711,22 @@
         <v>372</v>
       </c>
       <c r="E41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H41" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I41" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -6722,22 +6746,22 @@
         <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H42" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I42" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J42" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -6757,22 +6781,22 @@
         <v>374</v>
       </c>
       <c r="E43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H43" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I43" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J43" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -6792,19 +6816,19 @@
         <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H44" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I44" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J44" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -6824,16 +6848,16 @@
         <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H45" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J45" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -6901,25 +6925,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
         <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6930,28 +6954,28 @@
         <v>21330051920290</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6962,25 +6986,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6991,31 +7015,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="J5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7029,25 +7053,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I6" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7058,31 +7082,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -7093,25 +7117,25 @@
         <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
         <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E8" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H8" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="J8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -7122,28 +7146,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E9" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7157,22 +7181,22 @@
         <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7183,31 +7207,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I11" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J11" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7218,31 +7242,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F12" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G12" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H12" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I12" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J12" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7253,28 +7277,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E13" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H13" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="I13" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J13" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -7288,22 +7312,22 @@
         <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G14" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H14" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J14" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7317,28 +7341,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D15" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F15" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G15" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H15" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I15" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J15" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -7352,28 +7376,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E16" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F16" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G16" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H16" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="I16" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7384,28 +7408,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="I17" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J17" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7416,28 +7440,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E18" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F18" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G18" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H18" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J18" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7448,25 +7472,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D19" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E19" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G19" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H19" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J19" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -7483,22 +7507,22 @@
         <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F20" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H20" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="I20" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J20" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7515,22 +7539,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E21" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H21" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I21" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J21" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7544,25 +7568,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D22" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E22" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F22" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G22" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H22" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="J22" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7573,31 +7597,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F23" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G23" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H23" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J23" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7608,28 +7632,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C24" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D24" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E24" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F24" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H24" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J24" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -7640,31 +7664,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C25" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D25" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H25" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I25" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7681,25 +7705,25 @@
         <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F26" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G26" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H26" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J26" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7710,28 +7734,28 @@
         <v>21330051920311</v>
       </c>
       <c r="B27" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C27" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D27" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H27" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -7748,22 +7772,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F28" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G28" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H28" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J28" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7774,28 +7798,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C29" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F29" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H29" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I29" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J29" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7806,28 +7830,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C30" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D30" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E30" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F30" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G30" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H30" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J30" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -7838,31 +7862,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E31" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F31" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G31" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H31" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I31" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J31" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -7876,25 +7900,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D32" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E32" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F32" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H32" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="I32" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J32" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -7908,25 +7932,25 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F33" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H33" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="I33" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J33" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7937,28 +7961,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C34" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D34" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E34" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F34" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G34" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H34" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J34" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -7972,25 +7996,25 @@
         <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D35" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E35" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F35" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G35" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H35" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J35" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -8007,22 +8031,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E36" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F36" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G36" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H36" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="J36" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -8036,25 +8060,25 @@
         <v>299</v>
       </c>
       <c r="C37" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D37" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E37" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F37" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H37" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="I37" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J37" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -8068,28 +8092,28 @@
         <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E38" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F38" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G38" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H38" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I38" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J38" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -8106,25 +8130,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E39" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F39" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G39" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H39" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I39" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J39" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -8141,25 +8165,25 @@
         <v>310</v>
       </c>
       <c r="D40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E40" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F40" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G40" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H40" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I40" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J40" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -8170,28 +8194,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C41" t="s">
         <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E41" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F41" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H41" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I41" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J41" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -8208,22 +8232,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E42" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F42" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H42" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="I42" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J42" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -8237,28 +8261,28 @@
         <v>325</v>
       </c>
       <c r="C43" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E43" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F43" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G43" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H43" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I43" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J43" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -8275,25 +8299,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E44" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F44" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G44" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H44" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I44" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J44" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -8307,28 +8331,28 @@
         <v>314</v>
       </c>
       <c r="C45" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D45" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E45" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F45" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G45" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H45" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I45" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J45" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -8396,28 +8420,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="J2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8428,28 +8452,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J3" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8460,25 +8484,25 @@
         <v>21330051920333</v>
       </c>
       <c r="B4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C4" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H4" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="J4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8489,28 +8513,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C5" t="s">
         <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E5" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F5" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H5" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8524,25 +8548,25 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D6" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F6" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H6" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I6" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J6" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8559,25 +8583,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E7" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F7" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G7" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H7" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="I7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8594,25 +8618,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F8" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G8" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H8" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="I8" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J8" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8629,28 +8653,28 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E9" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F9" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G9" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H9" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="I9" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="J9" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8658,31 +8682,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C10" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E10" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F10" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G10" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H10" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="I10" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8699,19 +8723,19 @@
         <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E11" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G11" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="H11" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J11" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8728,22 +8752,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E12" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F12" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G12" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H12" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J12" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8754,31 +8778,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E13" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F13" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G13" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H13" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="I13" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J13" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8789,7 +8813,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C14" t="s">
         <v>299</v>
@@ -8798,16 +8822,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F14" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H14" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="J14" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8824,22 +8848,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E15" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F15" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H15" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I15" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="J15" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8856,22 +8880,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E16" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F16" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H16" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I16" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J16" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8882,28 +8906,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E17" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F17" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H17" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="I17" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J17" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8917,25 +8941,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D18" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E18" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H18" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="I18" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="J18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -8949,28 +8973,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D19" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E19" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F19" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G19" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H19" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I19" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="J19" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8981,28 +9005,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C20" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D20" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E20" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F20" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H20" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="I20" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="J20" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9019,22 +9043,22 @@
         <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E21" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F21" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H21" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I21" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="J21" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9051,22 +9075,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E22" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F22" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G22" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H22" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J22" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -9077,31 +9101,31 @@
         <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E23" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G23" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H23" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="I23" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="J23" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9115,22 +9139,22 @@
         <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D24" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E24" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G24" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H24" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="J24" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9147,25 +9171,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E25" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F25" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G25" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H25" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I25" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="J25" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -9179,28 +9203,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D26" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E26" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F26" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G26" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H26" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="I26" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="J26" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9214,28 +9238,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D27" t="s">
         <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F27" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G27" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H27" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I27" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="J27" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -9246,28 +9270,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C28" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D28" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E28" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F28" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H28" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="I28" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="J28" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9335,28 +9359,28 @@
         <v>21330051920185</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="I2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J2" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9367,28 +9391,28 @@
         <v>21330051920186</v>
       </c>
       <c r="B3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="G3" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="J3" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -9402,22 +9426,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G4" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H4" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="J4" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9434,22 +9458,22 @@
         <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E5" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F5" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="H5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="I5" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="J5" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9460,28 +9484,28 @@
         <v>21330051920189</v>
       </c>
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C6" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D6" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E6" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F6" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H6" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="I6" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J6" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9498,22 +9522,22 @@
         <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E7" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F7" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H7" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="J7" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9530,22 +9554,22 @@
         <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E8" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F8" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H8" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="I8" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="J8" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9556,31 +9580,31 @@
         <v>21330051920192</v>
       </c>
       <c r="B9" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C9" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D9" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E9" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F9" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G9" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H9" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="I9" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="J9" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -9594,25 +9618,25 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D10" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E10" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F10" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H10" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="I10" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="J10" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9626,25 +9650,25 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D11" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F11" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H11" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="I11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J11" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9655,31 +9679,31 @@
         <v>21330051920194</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C12" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D12" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E12" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F12" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G12" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H12" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="I12" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J12" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9696,25 +9720,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E13" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F13" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G13" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H13" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="I13" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J13" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -9725,28 +9749,28 @@
         <v>21330051920196</v>
       </c>
       <c r="B14" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="I14" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="J14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9763,22 +9787,22 @@
         <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E15" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F15" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H15" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="I15" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J15" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -9789,28 +9813,28 @@
         <v>21330051920386</v>
       </c>
       <c r="B16" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E16" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F16" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G16" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H16" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="J16" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -9821,28 +9845,28 @@
         <v>21330051920198</v>
       </c>
       <c r="B17" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C17" t="s">
         <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E17" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F17" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H17" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="I17" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="J17" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9859,22 +9883,22 @@
         <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E18" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F18" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G18" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H18" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="J18" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9885,28 +9909,28 @@
         <v>21330051920200</v>
       </c>
       <c r="B19" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C19" t="s">
         <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E19" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F19" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H19" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="I19" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="J19" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9917,25 +9941,25 @@
         <v>21330051920201</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E20" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G20" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H20" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="J20" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9949,28 +9973,28 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D21" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E21" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F21" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="G21" t="s">
         <v>185</v>
       </c>
       <c r="H21" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="I21" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J21" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9987,25 +10011,25 @@
         <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E22" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F22" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G22" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H22" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I22" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J22" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -10016,28 +10040,28 @@
         <v>21330051920204</v>
       </c>
       <c r="B23" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E23" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F23" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H23" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I23" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J23" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -10048,31 +10072,31 @@
         <v>21330051920205</v>
       </c>
       <c r="B24" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C24" t="s">
         <v>286</v>
       </c>
       <c r="D24" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E24" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F24" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G24" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H24" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I24" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="J24" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10083,28 +10107,28 @@
         <v>21330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E25" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F25" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H25" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I25" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J25" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10115,25 +10139,25 @@
         <v>21330051920207</v>
       </c>
       <c r="B26" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G26" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H26" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="J26" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10144,28 +10168,28 @@
         <v>21330051920208</v>
       </c>
       <c r="B27" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C27" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D27" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E27" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F27" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H27" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I27" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="J27" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10182,22 +10206,22 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E28" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F28" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G28" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H28" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="J28" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10211,28 +10235,28 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D29" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E29" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F29" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G29" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H29" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I29" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="J29" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -10249,25 +10273,25 @@
         <v>301</v>
       </c>
       <c r="D30" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E30" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F30" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G30" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H30" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I30" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J30" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -10281,28 +10305,28 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D31" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E31" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F31" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G31" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H31" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="I31" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="J31" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10316,28 +10340,28 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D32" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E32" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F32" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G32" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H32" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I32" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J32" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10351,28 +10375,28 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D33" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E33" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F33" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G33" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H33" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="I33" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="J33" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K33">
         <v>1</v>
